--- a/FOIA SAR data/SM-3 BLOCK IIA/SM-3 IIA Data Draw.xlsx
+++ b/FOIA SAR data/SM-3 BLOCK IIA/SM-3 IIA Data Draw.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2015-09 Joint Development\Research\SM-3 BLOCK 2A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2007-01 PROFESSIONAL SERVICES\R scripts and data\FOIA SAR data\SM-3 BLOCK IIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="SM-3 SARs" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>Net Change</t>
   </si>
@@ -123,21 +122,6 @@
     <t>Variance</t>
   </si>
   <si>
-    <t>1569.0 1584.0</t>
-  </si>
-  <si>
-    <t>1481.0 N/A N/A</t>
-  </si>
-  <si>
-    <t>160.0 N/A N/A</t>
-  </si>
-  <si>
-    <t>Contractor Program Manager</t>
-  </si>
-  <si>
-    <t>Target Ceiling Qty</t>
-  </si>
-  <si>
     <t>RDT&amp;E</t>
   </si>
   <si>
@@ -147,52 +131,40 @@
     <t>15-F-0504-BMDS_SAR__Dec_2014</t>
   </si>
   <si>
-    <t>1462.0 1472.0</t>
-  </si>
-  <si>
-    <t>1442.0 N/A N/A</t>
-  </si>
-  <si>
     <t>14-F-0402-DOC_12_BMDSDecember2013</t>
   </si>
   <si>
-    <t>1401.0 1405.0</t>
-  </si>
-  <si>
-    <t>1415.0 N/A N/A</t>
-  </si>
-  <si>
     <t>BMDS_Decebmer_2012_SAR</t>
   </si>
   <si>
-    <t>minus 124.7</t>
-  </si>
-  <si>
-    <t>minus 91.5</t>
-  </si>
-  <si>
     <t>Delayed Aegis SM-3 Block IIA Procurement by one year (Schedule)</t>
   </si>
   <si>
     <t>Procurement $M</t>
   </si>
   <si>
-    <t>plus 153.8</t>
-  </si>
-  <si>
-    <t>plus 117.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Additional Aegis SM-3 Block IIA test rounds (Estimating)  </t>
   </si>
   <si>
     <t>BMDS-SAR_31_DEC_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Price </t>
+  </si>
+  <si>
+    <t>+117.1</t>
+  </si>
+  <si>
+    <t>+153.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract Variance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -405,6 +377,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -414,10 +389,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,6 +497,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +549,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -709,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,10 +744,10 @@
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -766,10 +775,10 @@
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -812,7 +821,7 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="16"/>
@@ -821,23 +830,23 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="14" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -890,11 +899,11 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -940,143 +949,186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="B28" s="5">
+        <v>-91.5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>-124.7</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>160</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1415</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1401</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B40" s="1">
         <v>-3</v>
@@ -1085,222 +1137,349 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>160</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1442</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1462</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-41</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-38</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-243.3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-328.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>160</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1481</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1569</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B72" s="1">
+        <v>-114</v>
+      </c>
+      <c r="C72" s="1">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1">
         <v>-41</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C73" s="1">
         <v>-26</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1">
-        <v>-3</v>
-      </c>
-      <c r="C51" s="1">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="1">
-        <v>-38</v>
-      </c>
-      <c r="C52" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="1">
-        <v>-243.3</v>
-      </c>
-      <c r="C57" s="1">
-        <v>-328.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="1">
-        <v>-114</v>
-      </c>
-      <c r="C66" s="1">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1">
-        <v>-41</v>
-      </c>
-      <c r="C67" s="1">
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="B74" s="1">
         <v>-73</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C74" s="1">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="24">
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="B2:C2"/>
@@ -1308,20 +1487,24 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>